--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -1844,7 +1844,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISION DEL SUR S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISION DEL SUR S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sociedad Transmisión del Sur S.A</t>
         </is>
       </c>
       <c r="F38" t="n">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F40" t="n">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Acuícola Volcanes SpA</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -2800,7 +2800,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">

--- a/data/Puyehue.xlsx
+++ b/data/Puyehue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Refugio de Montaña Antillanca</t>
+          <t>Planta de Tratamiento de Aguas Servidas Domiciliarias de Entre Lagos, Comuna de Puyehue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Club Andino Osorno</t>
+          <t>Ilustre Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/04/2021</t>
+          <t>27/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524282&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160923176&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMICILIARIAS D ENTRE LAGOS, COMUNA DE PUYEHUE</t>
+          <t>Refugio de Montaña Antillanca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puyehue</t>
+          <t>Club Andino Osorno</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3213</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/09/2020</t>
+          <t>29/04/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147403274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151524282&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>REPOSICIÓN RUTA 215 - CH, TRAMO PUENTE GOL GOL N°1 ? ADUANA PAJARITOS</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS DOMICILIARIAS D ENTRE LAGOS, COMUNA DE PUYEHUE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Ilustre Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18316</v>
+        <v>3213</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28/11/2019</t>
+          <t>25/09/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144414286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147403274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión Eléctrica Rucatayo-San Pablo</t>
+          <t>REPOSICIÓN RUTA 215 - CH, TRAMO PUENTE GOL GOL N°1 ? ADUANA PAJARITOS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TRANSRUCATAYO S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>18316</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/01/2019</t>
+          <t>28/11/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142332771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144414286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reposición Ruta 215-CH, Sector Aduana Pajaritos-Límite Región de Los Lagos</t>
+          <t>Modificación Línea de Transmisión Eléctrica Rucatayo-San Pablo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>TRANSRUCATAYO S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>29169</v>
+        <v>2000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>19/10/2018</t>
+          <t>23/01/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141488036&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142332771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Planta Extracción de Áridos Brotec</t>
+          <t>Reposición Ruta 215-CH, Sector Aduana Pajaritos-Límite Región de Los Lagos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Brotec Construcción SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>300</v>
+        <v>29169</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>19/10/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138985706&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141488036&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piscicultura Colonia Entre Lagos</t>
+          <t>Ampliación Planta Extracción de Áridos Brotec</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inversiones Futaleufu Ltda</t>
+          <t>Brotec Construcción SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10800</v>
+        <v>300</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/09/2016</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131800047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138985706&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/08/2016</t>
+          <t>22/09/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131684925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131800047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>04/05/2016</t>
+          <t>26/08/2016</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131684925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SUBIDA EN UN METRO COTA DEL EMBALSE RUCATAYO</t>
+          <t>Piscicultura Colonia Entre Lagos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Rucatayo S.A.</t>
+          <t>Inversiones Futaleufu Ltda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>10800</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/03/2015</t>
+          <t>04/05/2016</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130329887&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/02/2015</t>
+          <t>24/03/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130241140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130329887&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>SUBIDA EN UN METRO COTA DEL EMBALSE RUCATAYO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Empresa Eléctrica Rucatayo S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6750</v>
+        <v>16</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>23/02/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130241140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación y Regularización de la Central Hidroelectrica Rucatayo</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Rucatayo S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>1200</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128942314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aumento de tensión de 66 kV a 110 kV de Linea de Transmisión SE Copihue - SE Aihuapi, Comuna de Puyehue, Región de Los Lagos</t>
+          <t>Modificación y Regularización de la Central Hidroelectrica Rucatayo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Capullo S.A.</t>
+          <t>Empresa Eléctrica Rucatayo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>800</v>
+        <v>18</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>18/12/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128942314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación y Regularización de la Central Hidroeléctrica Rucatayo</t>
+          <t>Aumento de tensión de 66 kV a 110 kV de Linea de Transmisión SE Copihue - SE Aihuapi, Comuna de Puyehue, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Rucatayo S.A.</t>
+          <t>Empresa Eléctrica Capullo S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>02/10/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128619632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128649189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN PROYECTO TECNICO, CENTRO DE SMOLTIFICACIÓN DE SALMONES BAHÍA EL ENCANTO, LAGO RUPANCO X° REGIÓN, PERT Nº 211101055</t>
+          <t>Modificación y Regularización de la Central Hidroeléctrica Rucatayo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Congelados Pacífico S.A.</t>
+          <t>Empresa Eléctrica Rucatayo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2500</v>
+        <v>19</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/08/2013</t>
+          <t>02/10/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128495817&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128619632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Minicentral Hidroeléctrica de Pasada Río Chanleufu</t>
+          <t>MODIFICACIÓN PROYECTO TECNICO, CENTRO DE SMOLTIFICACIÓN DE SALMONES BAHÍA EL ENCANTO, LAGO RUPANCO X° REGIÓN, PERT Nº 211101055</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chanleufú</t>
+          <t>Congelados Pacífico S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18000</v>
+        <v>2500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/07/2013</t>
+          <t>22/08/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8349184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128495817&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Las Vertientes Sector 1</t>
+          <t>Minicentral Hidroeléctrica de Pasada Río Chanleufu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>INVERSIONES AGUA MANSA SpA</t>
+          <t>Central Hidroeléctrica Chanleufú</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/06/2013</t>
+          <t>12/07/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8228749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8349184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Subestación El Encanto</t>
+          <t>Ampliación Piscicultura Las Vertientes Sector 1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>INVERSIONES AGUA MANSA SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2612</v>
+        <v>5000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/03/2013</t>
+          <t>12/06/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7952879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8228749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Piscicultura Puyehue .</t>
+          <t>Subestación El Encanto</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Salmones Blumar S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3000</v>
+        <v>2612</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/12/2012</t>
+          <t>08/03/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7952879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Río Chanleufú</t>
+          <t>Piscicultura Puyehue .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chanleufú</t>
+          <t>Salmones Blumar S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/11/2012</t>
+          <t>21/12/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7515496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Piscicultura Puyehue</t>
+          <t>Central Hidroeléctrica Río Chanleufú</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas Breeding Water S.A.</t>
+          <t>Central Hidroeléctrica Chanleufú</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28/09/2012</t>
+          <t>13/11/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7369980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7515496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>27/08/2012</t>
+          <t>28/09/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7259540&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7369980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro Puyehue</t>
+          <t>Piscicultura Puyehue</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Servicios Acuicolas Breeding Water S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>1500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/07/2012</t>
+          <t>27/08/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7259540&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Piscicultura Puyehue</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Centro Puyehue</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Andrés Roberto Ellwanger Reinecke</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1500</v>
+        <v>24</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/07/2012</t>
+          <t>05/07/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7077393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7049867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chanleufú</t>
+          <t>Piscicultura Puyehue</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chanleufú</t>
+          <t>Andrés Roberto Ellwanger Reinecke</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>1500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/05/2012</t>
+          <t>04/07/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6715299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7077393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Central Hidroeléctrica Chanleufú</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Central Hidroeléctrica Chanleufú</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>09/05/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6715299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Piscicultura Rupanco</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Andres Vargas teuber</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/07/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5833677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica de Paso La Flor</t>
+          <t>Piscicultura Rupanco</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica La Flor S.A.</t>
+          <t>Andres Vargas teuber</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5462</v>
+        <v>2000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/10/2010</t>
+          <t>19/07/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4983347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5833677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Calabozo</t>
+          <t>Central Hidroeléctrica de Paso La Flor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Empresa Eléctrica La Flor S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>5462</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14/09/2010</t>
+          <t>07/10/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4959221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4983347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Correntoso S/E Aihuapi</t>
+          <t>Modificación al Manejo de Mortalidad mediante un Sistema de Ensilaje. Piscicultura Calabozo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2900</v>
+        <v>4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04/06/2010</t>
+          <t>14/09/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633100&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4959221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN SISTEMA DE ENSILAJE DE MORTALIDAD CENTRO DE CULTIVO LAGO El ENCANTO, BAHÍA EL ENCANTO, COMUNA DE PUYEHUE, PROVINCIA DE OSORNO, X REGIÓN.</t>
+          <t>Línea de Transmisión 110 kV Correntoso S/E Aihuapi</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>23</v>
+        <v>2900</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/04/2010</t>
+          <t>04/06/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4633100&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU, COMUNA DE PUYEHUE, PROVINCIA DE OSORNO</t>
+          <t>IMPLEMENTACIÓN SISTEMA DE ENSILAJE DE MORTALIDAD CENTRO DE CULTIVO LAGO El ENCANTO, BAHÍA EL ENCANTO, COMUNA DE PUYEHUE, PROVINCIA DE OSORNO, X REGIÓN.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06/04/2010</t>
+          <t>27/04/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4475501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4512436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 110 kV Nalcas-S/E Aihuapi</t>
+          <t>IMPLEMENTACIÓN SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU, COMUNA DE PUYEHUE, PROVINCIA DE OSORNO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3865</v>
+        <v>50</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>06/04/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4475501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
+          <t>Línea de Transmisión 110 kV Nalcas-S/E Aihuapi</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2123,11 +2123,11 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8000</v>
+        <v>3865</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Línea de Transmision 110 kV Pilmaiquén - S/E Antillanca (e-seia)</t>
+          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sociedad Transmisión del Sur S.A</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>600</v>
+        <v>8000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>01/12/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LÍnea de Tansmisión 2 x 110 kV Aihuapi - Antillanca (e-seia)</t>
+          <t>Línea de Transmision 110 kV Pilmaiquén - S/E Antillanca (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sociedad Transmisión del Sur S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2660</v>
+        <v>600</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>01/12/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4200716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4218243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Subestación Antillanca 220/110 kV 0 (e-seia)</t>
+          <t>LÍnea de Tansmisión 2 x 110 kV Aihuapi - Antillanca (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,11 +2267,11 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12000</v>
+        <v>2660</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4178132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4200716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Subestación Antillanca 220/110 kV 0 (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>377</v>
+        <v>12000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>11/11/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4178132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>377</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fibra Óptica Bariloche Osorno en tramo Parque Nacional Puyehue (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Consultores de Ingeniería Ltda.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>850</v>
+        <v>22</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/01/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3509134&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ampliación y Modernización de la Piscicultura Pichichanlelfu (e-seia)</t>
+          <t>Fibra Óptica Bariloche Osorno en tramo Parque Nacional Puyehue (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Consultores de Ingeniería Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>850</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/11/2008</t>
+          <t>20/01/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3329610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3509134&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LINEA DE TRANSMISIÓN ELECTRICA RUCATAYO - SAN PABLO (e-seia)</t>
+          <t>Ampliación y Modernización de la Piscicultura Pichichanlelfu (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12650</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>05/11/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3139243&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3329610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Piscicultura Río Pescadero (e-seia)</t>
+          <t>LINEA DE TRANSMISIÓN ELECTRICA RUCATAYO - SAN PABLO (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Ñilque Limitada</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>12650</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/06/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3139243&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mejoramiento del Refugio y Área de Descanso, Sector Lago Paraíso, Parque Nacional Puyehue, Región de Los Lagos (e-seia)</t>
+          <t>Piscicultura Río Pescadero (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CONAF, Región de Los Lagos</t>
+          <t>Sociedad Comercial Ñilque Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/06/2008</t>
+          <t>19/06/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2943872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2984367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Mejoramiento del Refugio y Área de Descanso, Sector Lago Paraíso, Parque Nacional Puyehue, Región de Los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>CONAF, Región de Los Lagos</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>429</v>
+        <v>5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>12/06/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2943872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,10 +2776,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Osorno</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -2787,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>75000</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>28/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Renuncia RCA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2369587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2820,36 +2824,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mini Centrales Hidroeléctricas de Pasada Palmar - Correntoso</t>
+          <t>Central Hidroeléctrica Osorno</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hidropalmar S.A</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>20000</v>
+        <v>75000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/07/2007</t>
+          <t>28/08/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Renuncia RCA</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2297715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2369587&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2864,40 +2868,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Mini Centrales Hidroeléctricas de Pasada Palmar - Correntoso</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Hidropalmar S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>300</v>
+        <v>20000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/07/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2297715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas domiciliarias de Entre Lagos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2922,30 +2922,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puyehue</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2385</v>
+        <v>300</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2217494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2960,30 +2960,30 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Los Lagos</t>
+          <t>Planta de Tratamiento de Aguas Servidas domiciliarias de Entre Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Ilustre Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>75000</v>
+        <v>2385</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>21/06/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2203226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2217494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Central Hidroelectrica Los Lagos</t>
+          <t>Central Hidroeléctrica Los Lagos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3021,23 +3021,27 @@
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+        </is>
+      </c>
       <c r="F56" t="n">
         <v>75000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>23/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2203146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2203226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3052,40 +3056,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Piscicultura Las Vertientes Sector 2 (e-seia)</t>
+          <t>Central Hidroelectrica Los Lagos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Compania Ganadera Las Vertientes Ltda.</t>
-        </is>
-      </c>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>3000</v>
+        <v>75000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/03/2007</t>
+          <t>23/05/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2068866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2203146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Piscicultura Las Vertientes Sector 2 (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3110,20 +3110,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Compania Ganadera Las Vertientes Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>27/03/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2068866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DIA Piscicultura Las Vertientes Sector 1 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3158,20 +3158,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>INVERSIONES AGUA MANSA SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14/03/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041588&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>DIA Piscicultura Las Vertientes Sector 1 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3206,30 +3206,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>INVERSIONES AGUA MANSA SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/03/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041588&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3259,25 +3259,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3315,17 +3315,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Derecho de Aprovechamiento de Aguas Superficiales para Central Hidroeléctrica de Pasada Golgol 1 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3350,30 +3350,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Exploraciones, Inversiones y Asesorías Huturi S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>04/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Derecho de Aprovechamiento de Aguas Superficiales para Central Hidroeléctrica de Pasada Golgol 2 (e-seia)</t>
+          <t>Derecho de Aprovechamiento de Aguas Superficiales para Central Hidroeléctrica de Pasada Golgol 1 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852166&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Piscicultura Pulelfu (e-seia)</t>
+          <t>Derecho de Aprovechamiento de Aguas Superficiales para Central Hidroeléctrica de Pasada Golgol 2 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3451,25 +3451,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Gladys Franco Arndt</t>
+          <t>Exploraciones, Inversiones y Asesorías Huturi S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/11/2006</t>
+          <t>04/12/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852166&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS PARA LA PLANTA QUESOS DON RICARDO PUYEHUE (e-seia)</t>
+          <t>Piscicultura Pulelfu (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3499,25 +3499,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AGRICOLA Y COMERCIAL LOS CORRALES LTDA.</t>
+          <t>Gladys Franco Arndt</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>2500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/10/2006</t>
+          <t>08/11/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1669423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1790204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrica Central GOLGOL I y GOLGOL II (e-seia)</t>
+          <t>REGULARIZACIÓN SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS PARA LA PLANTA QUESOS DON RICARDO PUYEHUE (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3547,25 +3547,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cooperativa Eléctrica Osorno Ltda.</t>
+          <t>AGRICOLA Y COMERCIAL LOS CORRALES LTDA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>16/10/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1763734&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1669423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>piscicultura Ñilque 0 (e-seia)</t>
+          <t>Proyecto Hidroeléctrica Central GOLGOL I y GOLGOL II (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3595,25 +3595,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sergio José Epple Davanzo</t>
+          <t>Cooperativa Eléctrica Osorno Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/09/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1677665&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1763734&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taller de Lavado de Redes Comercial DAF Ltda. (e-seia)</t>
+          <t>piscicultura Ñilque 0 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3643,15 +3643,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Redes Sur SpA</t>
+          <t>Sergio José Epple Davanzo</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>07/09/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1652979&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1677665&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Pulelfu (e-seia)</t>
+          <t>Taller de Lavado de Redes Comercial DAF Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3691,15 +3691,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica La Leonera S.A.</t>
+          <t>Redes Sur SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>12500</v>
+        <v>15</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1652979&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Comercial DAF Ltda Lavado de Redes (e-seia)</t>
+          <t>Central Hidroeléctrica Pulelfu (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3739,25 +3739,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas Breeding Water S.A.</t>
+          <t>Empresa Eléctrica La Leonera S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>14</v>
+        <v>12500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12/07/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1596179&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1572762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Comercial DAF Ltda Lavado de Redes (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3782,30 +3782,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Servicios Acuicolas Breeding Water S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4000</v>
+        <v>14</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>12/07/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1596179&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3883,25 +3883,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>170</v>
+        <v>4000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3916,12 +3916,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Rucatayo</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3931,15 +3931,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Rucatayo S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>44852</v>
+        <v>170</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=987174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3964,40 +3964,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COMERCIAL DAF Ltda. (e-seia)</t>
+          <t>Central Hidroeléctrica Rucatayo</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Servicios Acuicolas Breeding Water S.A.</t>
+          <t>Empresa Eléctrica Rucatayo S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>44852</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21/01/2005</t>
+          <t>21/07/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=987174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Comercial DAF Ltda. (e-seia)</t>
+          <t>COMERCIAL DAF Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4031,21 +4031,21 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/12/2004</t>
+          <t>21/01/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=576224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>Comercial DAF Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4070,30 +4070,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Servicios Acuicolas Breeding Water S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>20/12/2004</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=556339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Piscicultura Río Pescadero, Sector Ñilque, Comuna de Puyehue, X Región de Los Lagos (Nº de Solicitud 202101132) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4118,20 +4118,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Ñilque Limitada</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15/12/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223761&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Packing Bulbos de Los Andes</t>
+          <t>Piscicultura Río Pescadero, Sector Ñilque, Comuna de Puyehue, X Región de Los Lagos (Nº de Solicitud 202101132) (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4171,15 +4171,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bulbos de Los Andes S.A.</t>
+          <t>Sociedad Comercial Ñilque Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>28/05/2002</t>
+          <t>15/12/2003</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223761&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Extensión del Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Pilmaiquen</t>
+          <t>Packing Bulbos de Los Andes</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4219,15 +4219,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puyehue</t>
+          <t>Bulbos de Los Andes S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>230</v>
+        <v>3500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/02/2002</t>
+          <t>28/05/2002</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Extensión del Alcantarillado y Planta de Tratamiento de Aguas Servidas de la Localidad de Pilmaiquen</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4262,20 +4262,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>I. Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>10000</v>
+        <v>230</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>04/02/2002</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sendero de Chile: Tramo Anticura - Volcán Casablanca Parque Nacional Puyehue Comuna Puyehue Provincia de Osorno Región de Los Lagos</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4310,20 +4310,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>90</v>
+        <v>10000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4526&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Complejo de Cabañas Destinada al Turismo</t>
+          <t>Sendero de Chile: Tramo Anticura - Volcán Casablanca Parque Nacional Puyehue Comuna Puyehue Provincia de Osorno Región de Los Lagos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4363,15 +4363,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Villareal Albornoz y Cia. Ltda.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>25/04/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4526&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Proyecto de Instalación Patio de Estabulación para Novillos Comuna de Puyehue X región</t>
+          <t>Complejo de Cabañas Destinada al Turismo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4411,15 +4411,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Agrícola Roble Pellín Ltda.</t>
+          <t>Villareal Albornoz y Cia. Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/07/2000</t>
+          <t>25/04/2001</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Estación de Servicio Ruta 215 Km 452 Acceso Poniente de Entre Lagos Comuna de Puyehue</t>
+          <t>Proyecto de Instalación Patio de Estabulación para Novillos Comuna de Puyehue X región</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4459,15 +4459,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sr. Carlos Aron Horn</t>
+          <t>Agrícola Roble Pellín Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>14/06/2000</t>
+          <t>18/07/2000</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2929&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3021&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Estudio Modificatorio del Plan Regulador Comunal de Puyehue- Entre Lagos</t>
+          <t>Estación de Servicio Ruta 215 Km 452 Acceso Poniente de Entre Lagos Comuna de Puyehue</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4507,15 +4507,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Puyehue</t>
+          <t>Sr. Carlos Aron Horn</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>19/05/1999</t>
+          <t>14/06/2000</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2929&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Puyehue Plan Seccional Bahía El Encanto Lago Rupanco Región de Los Lagos</t>
+          <t>Estudio Modificatorio del Plan Regulador Comunal de Puyehue- Entre Lagos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Puyehue</t>
+          <t>I. Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4563,7 +4563,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>25/01/1999</t>
+          <t>19/05/1999</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Piscícola Las Vertientes</t>
+          <t>Plan Regulador Comunal de Puyehue Plan Seccional Bahía El Encanto Lago Rupanco Región de Los Lagos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4603,25 +4603,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Juan Isidro Carrasco Cárdenas</t>
+          <t>Ilustre Municipalidad de Puyehue</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/04/1998</t>
+          <t>25/01/1999</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Marina y Pub</t>
+          <t>Piscícola Las Vertientes</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4646,30 +4646,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria San Andrés</t>
+          <t>Juan Isidro Carrasco Cárdenas</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02/12/1997</t>
+          <t>14/04/1998</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4684,43 +4684,91 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>Marina y Pub</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Decimocuarta</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Sociedad Inmobiliaria San Andrés</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>90</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>02/12/1997</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Abandonado</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=788&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Puyehue</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>Bahía El Encanto-Lago Rupanco</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>Inmobiliaria Urbanización Manquehue Ltda.</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="F92" t="n">
         <v>18000</v>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>04/11/1997</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=186&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Puyehue</t>
         </is>
